--- a/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,15 +656,60 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>22,17%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>54,7%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>47,47%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>68,14%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>56,28%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>51,97%</t>
         </is>
@@ -579,15 +724,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>17,68; 27,73</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48,58; 61,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>42,03; 54,12</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 38,51</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>62,24; 73,32</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>51,61; 60,66</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23,19; 31,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>57,22; 65,39</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>48,13; 55,66</t>
         </is>
@@ -606,15 +796,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23,31%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>55,37%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26,44%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>34,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>65,72%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,16%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>60,72%</t>
         </is>
@@ -629,15 +864,60 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>14,36; 21,63</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11,91; 18,79</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19,45; 27,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>49,69; 60,64</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 30,78</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17,04; 25,01</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29,96; 38,68</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>61,68; 69,48</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 24,84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 20,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>26,04; 31,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>57,35; 64,04</t>
         </is>
@@ -656,15 +936,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>56,73%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>58,01%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>70,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>74,53%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>63,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>66,85%</t>
         </is>
@@ -679,15 +1004,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>11,38; 19,61</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>50,82; 62,03</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18,8; 28,07</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>52,6; 63,12</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13,8; 22,14</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>65,35; 75,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 32,66</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>70,38; 78,53</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>13,89; 19,54</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>59,83; 67,59</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>22,12; 29,07</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>63,3; 70,24</t>
         </is>
@@ -706,15 +1076,60 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>23,26%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>37,98%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52,6%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>85,07%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32,78%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>52,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65,18%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>87,35%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45,43%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>59,02%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>86,37%</t>
         </is>
@@ -729,15 +1144,60 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>19,13; 27,78</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34,14; 41,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47,12; 57,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>80,11; 89,33</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>27,99; 37,65</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48,64; 56,59</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60,09; 69,59</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
         <is>
           <t>83,23; 90,55</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24,97; 31,97</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 48,1</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54,99; 62,64</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>83,51; 89,3</t>
         </is>
@@ -756,15 +1216,60 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>30,15%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>95,15%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>39,81%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>95,87%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35,03%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,83%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
         <is>
           <t>95,54%</t>
         </is>
@@ -779,15 +1284,60 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>24,1; 36,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 32,08</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 31,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>91,24; 97,24</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32,29; 46,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25,83; 38,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 36,84</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
         <is>
           <t>93,04; 97,56</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,32; 39,95</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 33,24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>23,39; 31,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>93,5; 96,83</t>
         </is>
@@ -806,15 +1356,60 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53,96%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>19,83%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>56,48%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17,35%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>60,05%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>62,26%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>57,03%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
         <is>
           <t>59,36%</t>
         </is>
@@ -829,15 +1424,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8,22; 16,21</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47,63; 59,79</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15,38; 25,07</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>50,86; 61,92</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 22,59</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53,95; 65,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 28,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>56,83; 67,21</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 17,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>52,93; 61,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>17,8; 24,98</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>55,35; 63,0</t>
         </is>
@@ -856,15 +1496,60 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>41,43%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>71,63%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>54,53%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>77,86%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>48,13%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>31,2%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>75,13%</t>
         </is>
@@ -879,15 +1564,60 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>14,68; 21,24</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37,6; 45,39</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21,59; 29,08</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>66,95; 75,8</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>17,38; 23,82</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50,57; 58,41</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32,74; 40,46</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
         <is>
           <t>73,3; 87,0</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 21,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>45,23; 50,72</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28,58; 33,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
         <is>
           <t>71,77; 80,77</t>
         </is>
@@ -906,15 +1636,60 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30,94%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,75%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>86,34%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35,89%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,4%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
         <is>
           <t>85,95%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31,8%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>35,04%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
         <is>
           <t>86,15%</t>
         </is>
@@ -929,15 +1704,60 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>24,43; 31,14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27,65; 34,77</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13,34; 18,73</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>83,4; 89,56</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32,6; 39,78</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35,64; 42,95</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 21,38</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>82,98; 88,26</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>29,41; 34,02</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>32,53; 37,28</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 19,08</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>84,09; 87,98</t>
         </is>
@@ -956,15 +1776,60 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27,7%</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>71,12%</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>27,87%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>46,15%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>77,1%</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>24,47%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>41,13%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>31,62%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
         <is>
           <t>74,28%</t>
         </is>
@@ -979,15 +1844,60 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>19,55; 22,29</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34,02; 37,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>26,1; 29,28</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
           <t>69,22; 73,14</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 29,37</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>44,39; 47,97</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>33,71; 37,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
         <is>
           <t>75,74; 79,32</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>23,4; 25,59</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>39,8; 42,28</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30,33; 32,76</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
         <is>
           <t>72,98; 75,99</t>
         </is>
@@ -1001,15 +1911,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,68; 27,73</t>
+          <t>17,49; 27,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,58; 61,04</t>
+          <t>48,57; 61,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>42,03; 54,12</t>
+          <t>40,77; 53,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,74; 38,51</t>
+          <t>26,51; 38,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,24; 73,32</t>
+          <t>62,31; 73,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,61; 60,66</t>
+          <t>51,12; 60,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,19; 31,08</t>
+          <t>23,65; 31,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>57,22; 65,39</t>
+          <t>56,81; 65,19</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,13; 55,66</t>
+          <t>47,84; 55,9</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,36; 21,63</t>
+          <t>14,37; 21,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 18,79</t>
+          <t>11,78; 18,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,45; 27,2</t>
+          <t>19,47; 27,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,69; 60,64</t>
+          <t>49,97; 60,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,36; 30,78</t>
+          <t>22,58; 30,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,04; 25,01</t>
+          <t>17,02; 24,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,96; 38,68</t>
+          <t>30,31; 38,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,68; 69,48</t>
+          <t>61,83; 68,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,84</t>
+          <t>19,59; 25,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,34</t>
+          <t>15,39; 20,54</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,04; 31,79</t>
+          <t>26,08; 31,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>57,35; 64,04</t>
+          <t>57,38; 63,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 19,61</t>
+          <t>11,6; 19,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,82; 62,03</t>
+          <t>51,15; 61,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 28,07</t>
+          <t>18,88; 28,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,6; 63,12</t>
+          <t>52,81; 63,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 22,14</t>
+          <t>14,12; 21,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,35; 75,1</t>
+          <t>64,76; 75,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 32,66</t>
+          <t>22,94; 33,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,38; 78,53</t>
+          <t>70,48; 78,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,54</t>
+          <t>13,89; 19,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>59,83; 67,59</t>
+          <t>60,01; 67,57</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,12; 29,07</t>
+          <t>21,7; 28,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63,3; 70,24</t>
+          <t>63,24; 70,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,13; 27,78</t>
+          <t>19,21; 27,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,14; 41,8</t>
+          <t>34,24; 41,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>47,12; 57,57</t>
+          <t>46,96; 57,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,11; 89,33</t>
+          <t>80,13; 89,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,99; 37,65</t>
+          <t>28,41; 38,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,64; 56,59</t>
+          <t>49,1; 56,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,09; 69,59</t>
+          <t>60,41; 70,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,23; 90,55</t>
+          <t>83,7; 90,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,97; 31,97</t>
+          <t>24,56; 31,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,75; 48,1</t>
+          <t>42,6; 48,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,99; 62,64</t>
+          <t>55,49; 62,4</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,51; 89,3</t>
+          <t>83,25; 88,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,1; 36,5</t>
+          <t>24,26; 37,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,44; 32,08</t>
+          <t>19,89; 32,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 31,37</t>
+          <t>18,93; 30,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,24; 97,24</t>
+          <t>91,41; 97,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,29; 46,64</t>
+          <t>33,16; 46,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,83; 38,49</t>
+          <t>25,54; 38,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,64; 36,84</t>
+          <t>24,05; 36,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>93,04; 97,56</t>
+          <t>92,98; 97,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 39,95</t>
+          <t>30,39; 39,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,24; 33,24</t>
+          <t>24,35; 33,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,39; 31,85</t>
+          <t>23,4; 31,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,5; 96,83</t>
+          <t>93,47; 97,01</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 16,21</t>
+          <t>8,19; 15,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,63; 59,79</t>
+          <t>48,08; 60,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,38; 25,07</t>
+          <t>15,58; 24,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,86; 61,92</t>
+          <t>51,13; 61,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 22,59</t>
+          <t>12,7; 21,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,95; 65,75</t>
+          <t>54,51; 65,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 28,3</t>
+          <t>18,01; 27,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,83; 67,21</t>
+          <t>57,31; 66,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,63</t>
+          <t>11,72; 17,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>52,93; 61,2</t>
+          <t>52,64; 61,35</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,98</t>
+          <t>17,67; 24,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,35; 63,0</t>
+          <t>55,78; 62,92</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 21,24</t>
+          <t>14,45; 20,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,6; 45,39</t>
+          <t>37,39; 45,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,59; 29,08</t>
+          <t>22,08; 29,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,95; 75,8</t>
+          <t>67,08; 75,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 23,82</t>
+          <t>17,34; 23,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,57; 58,41</t>
+          <t>50,24; 58,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,74; 40,46</t>
+          <t>33,0; 40,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,3; 87,0</t>
+          <t>72,84; 86,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 21,36</t>
+          <t>16,88; 21,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,23; 50,72</t>
+          <t>45,2; 50,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,58; 33,91</t>
+          <t>28,7; 34,16</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,77; 80,77</t>
+          <t>71,77; 80,63</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,43; 31,14</t>
+          <t>24,21; 30,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,65; 34,77</t>
+          <t>27,68; 34,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,34; 18,73</t>
+          <t>13,15; 18,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,4; 89,56</t>
+          <t>83,35; 89,17</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,6; 39,78</t>
+          <t>32,65; 39,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,64; 42,95</t>
+          <t>35,58; 42,77</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,68; 21,38</t>
+          <t>15,88; 21,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,98; 88,26</t>
+          <t>82,97; 88,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,41; 34,02</t>
+          <t>29,55; 34,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>32,53; 37,28</t>
+          <t>32,59; 37,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,31; 19,08</t>
+          <t>15,14; 19,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>84,09; 87,98</t>
+          <t>84,1; 87,95</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,55; 22,29</t>
+          <t>19,56; 22,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,02; 37,55</t>
+          <t>34,22; 37,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,1; 29,28</t>
+          <t>26,29; 29,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69,22; 73,14</t>
+          <t>69,28; 73,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,39; 29,37</t>
+          <t>26,28; 29,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>44,39; 47,97</t>
+          <t>44,52; 48,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,71; 37,09</t>
+          <t>33,7; 37,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>75,74; 79,32</t>
+          <t>75,57; 79,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,4; 25,59</t>
+          <t>23,49; 25,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>39,8; 42,28</t>
+          <t>39,82; 42,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,33; 32,76</t>
+          <t>30,52; 32,76</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>72,98; 75,99</t>
+          <t>72,97; 75,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>47,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>51,97%</t>
+          <t>51,61%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,83; 44,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,77; 53,55</t>
+          <t>40,27; 54,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,98; 60,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,12; 60,8</t>
+          <t>50,52; 60,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,72; 50,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,84; 55,9</t>
+          <t>47,08; 56,0</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,37%</t>
+          <t>55,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>65,72%</t>
+          <t>65,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>60,46%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,97; 60,71</t>
+          <t>49,64; 60,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,83; 68,82</t>
+          <t>61,78; 68,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>57,38; 63,93</t>
+          <t>56,99; 63,87</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74,53%</t>
+          <t>74,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>66,85%</t>
+          <t>66,46%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,81; 63,61</t>
+          <t>52,43; 63,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,48; 78,87</t>
+          <t>70,49; 78,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>63,24; 70,21</t>
+          <t>62,82; 69,98</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,07%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>51,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>87,72%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,24; 41,83</t>
+          <t>32,38; 42,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,13; 89,29</t>
+          <t>79,52; 89,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 56,7</t>
+          <t>46,71; 57,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,7; 90,2</t>
+          <t>85,77; 93,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>42,6; 48,54</t>
+          <t>41,17; 48,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,25; 88,89</t>
+          <t>84,27; 90,93</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>95,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,41; 97,12</t>
+          <t>91,52; 97,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,98; 97,47</t>
+          <t>92,95; 97,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,47; 97,01</t>
+          <t>93,52; 97,01</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>56,48%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>59,06%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51,13; 61,86</t>
+          <t>50,7; 61,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,31; 66,99</t>
+          <t>57,34; 66,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,78; 62,92</t>
+          <t>55,46; 62,62</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>71,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77,86%</t>
+          <t>80,44%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>75,13%</t>
+          <t>76,66%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,08; 75,73</t>
+          <t>66,68; 75,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72,84; 86,02</t>
+          <t>73,02; 90,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,77; 80,63</t>
+          <t>71,83; 84,79</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>86,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>87,85%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,35; 89,17</t>
+          <t>84,58; 95,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>82,97; 88,24</t>
+          <t>83,26; 88,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>84,1; 87,95</t>
+          <t>85,16; 92,75</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>71,63%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>74,77%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69,28; 73,18</t>
+          <t>68,68; 78,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>75,57; 79,22</t>
+          <t>75,69; 82,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>72,97; 75,82</t>
+          <t>72,9; 77,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B_3_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 27,42</t>
+          <t>17,52; 27,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,83; 44,42</t>
+          <t>33,08; 44,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,57; 61,08</t>
+          <t>48,87; 61,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,1</t>
+          <t>40,68; 54,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,51; 38,9</t>
+          <t>26,43; 38,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,98; 60,44</t>
+          <t>47,87; 61,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,31; 73,31</t>
+          <t>62,0; 73,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,52; 60,8</t>
+          <t>51,02; 60,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,65; 31,39</t>
+          <t>23,42; 30,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>41,72; 50,27</t>
+          <t>42,1; 50,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56,81; 65,19</t>
+          <t>56,72; 65,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,08; 56,0</t>
+          <t>46,97; 56,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,37; 21,63</t>
+          <t>14,26; 21,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 18,41</t>
+          <t>11,73; 18,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 27,3</t>
+          <t>19,46; 27,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,64; 60,8</t>
+          <t>49,11; 60,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 30,49</t>
+          <t>22,48; 30,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 24,19</t>
+          <t>17,02; 24,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,31; 38,58</t>
+          <t>29,93; 38,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,78; 68,9</t>
+          <t>61,59; 69,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,59; 25,03</t>
+          <t>19,49; 25,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,39; 20,54</t>
+          <t>15,37; 20,34</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,08; 31,8</t>
+          <t>26,19; 31,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>56,99; 63,87</t>
+          <t>56,96; 63,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 19,92</t>
+          <t>11,94; 19,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,15; 61,87</t>
+          <t>51,41; 62,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,88; 28,0</t>
+          <t>18,27; 27,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 63,26</t>
+          <t>52,08; 63,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,12; 21,99</t>
+          <t>13,96; 22,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>64,76; 75,64</t>
+          <t>64,58; 75,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,94; 33,02</t>
+          <t>22,87; 33,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,49; 78,95</t>
+          <t>70,23; 78,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,89; 19,65</t>
+          <t>13,93; 19,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>60,01; 67,57</t>
+          <t>59,86; 67,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,7; 28,79</t>
+          <t>22,19; 28,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>62,82; 69,98</t>
+          <t>62,75; 69,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,21; 27,89</t>
+          <t>19,22; 28,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,38; 42,94</t>
+          <t>32,3; 42,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,96; 57,58</t>
+          <t>47,49; 58,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>79,52; 89,15</t>
+          <t>78,45; 89,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,41; 38,02</t>
+          <t>28,06; 37,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,71; 57,21</t>
+          <t>46,33; 56,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,41; 70,37</t>
+          <t>59,66; 69,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,77; 93,94</t>
+          <t>85,46; 93,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,56; 31,27</t>
+          <t>24,87; 31,63</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>41,17; 48,66</t>
+          <t>41,14; 48,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,49; 62,4</t>
+          <t>55,07; 62,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,27; 90,93</t>
+          <t>84,38; 91,15</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,26; 37,21</t>
+          <t>23,91; 36,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,89; 32,37</t>
+          <t>19,4; 32,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,93; 30,62</t>
+          <t>19,23; 30,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>91,52; 97,12</t>
+          <t>91,58; 97,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,16; 46,98</t>
+          <t>33,31; 46,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,54; 38,01</t>
+          <t>25,65; 38,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,05; 36,69</t>
+          <t>24,1; 36,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>92,95; 97,48</t>
+          <t>93,05; 97,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,92</t>
+          <t>30,34; 39,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,35; 33,01</t>
+          <t>24,72; 33,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 31,72</t>
+          <t>23,5; 32,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>93,52; 97,01</t>
+          <t>93,43; 96,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,19; 15,84</t>
+          <t>8,55; 16,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,08; 60,12</t>
+          <t>47,44; 60,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,58; 24,66</t>
+          <t>14,99; 25,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>50,7; 61,48</t>
+          <t>50,6; 61,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>12,7; 21,84</t>
+          <t>13,17; 22,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,51; 65,98</t>
+          <t>53,53; 65,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,01; 27,96</t>
+          <t>18,04; 28,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,34; 66,96</t>
+          <t>56,83; 67,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,72; 17,6</t>
+          <t>11,79; 18,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>52,64; 61,35</t>
+          <t>52,59; 61,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,67; 24,92</t>
+          <t>18,06; 25,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>55,46; 62,62</t>
+          <t>54,98; 62,55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 20,79</t>
+          <t>14,34; 21,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,39; 45,57</t>
+          <t>37,22; 45,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,08; 29,29</t>
+          <t>21,99; 29,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>66,68; 75,79</t>
+          <t>66,3; 75,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,89</t>
+          <t>17,36; 23,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>50,24; 58,42</t>
+          <t>50,26; 58,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,0; 40,63</t>
+          <t>32,56; 40,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>73,02; 90,69</t>
+          <t>73,09; 90,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,26</t>
+          <t>16,97; 21,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>45,2; 50,86</t>
+          <t>45,31; 50,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,7; 34,16</t>
+          <t>28,51; 33,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,83; 84,79</t>
+          <t>72,11; 85,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,21; 30,93</t>
+          <t>24,22; 30,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,68; 34,51</t>
+          <t>27,88; 34,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13,15; 18,33</t>
+          <t>13,23; 18,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>84,58; 95,44</t>
+          <t>84,52; 95,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,65; 39,71</t>
+          <t>32,33; 39,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,58; 42,77</t>
+          <t>35,2; 42,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,88; 21,38</t>
+          <t>15,65; 21,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>83,26; 88,33</t>
+          <t>83,24; 88,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,55; 34,39</t>
+          <t>29,44; 34,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,42</t>
+          <t>32,44; 37,56</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,14; 19,01</t>
+          <t>15,14; 19,2</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>85,16; 92,75</t>
+          <t>85,08; 92,96</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,56; 22,33</t>
+          <t>19,53; 22,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>34,22; 37,6</t>
+          <t>34,31; 37,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,29; 29,24</t>
+          <t>26,1; 29,28</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>68,68; 78,1</t>
+          <t>68,72; 77,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,28; 29,32</t>
+          <t>26,32; 29,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>44,52; 48,08</t>
+          <t>44,42; 48,03</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,7; 37,01</t>
+          <t>33,64; 37,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>75,69; 82,06</t>
+          <t>75,69; 81,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>23,49; 25,52</t>
+          <t>23,34; 25,53</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>39,82; 42,3</t>
+          <t>39,86; 42,4</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30,52; 32,76</t>
+          <t>30,48; 32,75</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>72,9; 77,91</t>
+          <t>72,8; 77,74</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume verduras y hortalizas a diario</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60352</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>113889</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>160182</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>147780</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>84549</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>154851</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>195372</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>162453</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>144901</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>268740</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>355554</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>310233</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>47697; 75822</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>97499; 132136</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>143114; 179480</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>126680; 169477</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>68943; 101216</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>136515; 174199</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>177755; 211421</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>147769; 176556</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>124851; 165143</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>244175; 294447</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>328703; 379098</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>282323; 337300</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87670</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>75678</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>115972</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>286503</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>133269</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>107900</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>178343</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>338280</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>220939</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>183578</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>294315</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>624783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70323; 105204</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59287; 92444</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>96848; 135608</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>254566; 314767</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>113298; 154479</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>89150; 130407</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>155807; 201410</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>317174; 357468</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>194352; 249469</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>158166; 209409</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>266639; 325167</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>588593; 661041</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>49327</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>183239</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>72378</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>181961</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>59576</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>240719</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>93277</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>258784</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>108904</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>423959</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>165655</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>440745</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38069; 62418</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>166058; 202621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58039; 86566</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>164593; 199637</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>46820; 74197</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>220233; 257033</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76906; 111012</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>243767; 272053</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>91157; 128940</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>397487; 448189</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>145087; 186304</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>416130; 462271</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83438</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140092</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>194596</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>265010</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>121769</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>201170</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>251792</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>425805</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>205207</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>341263</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>446388</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>690815</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68919; 100590</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>120806; 159569</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>175701; 215631</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>244620; 278674</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>104241; 140720</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>180214; 220557</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>230487; 269929</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>406560; 445583</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>181579; 230939</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>313886; 370367</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>416500; 472623</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>664557; 717855</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>737</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>61294</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>54360</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>51836</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>170119</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>82680</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>70267</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65814</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>199332</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>143974</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>124627</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>117650</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>369451</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>48604; 74668</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>41247; 68494</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40608; 64478</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>163685; 173743</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>69172; 97383</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>56327; 84872</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>52677; 78822</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>193517; 202863</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>124699; 161743</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>106833; 145221</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>101019; 137544</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>361294; 374525</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31771</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>147848</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>51980</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>151154</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>48260</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>167003</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>159927</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>80031</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>314851</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>113976</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>311081</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>23164; 45049</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>129966; 166052</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>39293; 65832</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>136442; 166950</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>36645; 62780</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>148870; 183191</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>49067; 78251</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>146094; 172729</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>64716; 99279</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>290325; 338097</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>96448; 135182</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>289581; 329425</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1171</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>108299</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>272437</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>166455</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>444897</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>130451</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>375795</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>250142</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>683182</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>238749</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>648232</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>416597</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1128080</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>88201; 129823</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>244750; 295945</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>143263; 189946</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>412549; 470497</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>110800; 150997</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>346335; 401137</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>222650; 277711</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>620689; 767421</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>212673; 270612</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>610206; 686756</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>380735; 452403</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1061167; 1256694</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1573</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>204551</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>240765</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>121938</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>828347</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>280809</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>320088</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>151477</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>615999</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>485359</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>560853</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>273415</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1444346</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>180143; 229223</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>216927; 269352</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>102469; 144575</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>784321; 886938</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>252979; 309626</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>289621; 345845</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>128813; 176012</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>596154; 631601</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>449265; 523065</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>519261; 601189</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>241863; 306820</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1398815; 1528498</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1152</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>887</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2425</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1513</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1157</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4151</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1579</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>6576</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>686702</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1228309</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>935337</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2475771</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>941362</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1637794</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1248213</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2843761</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1628064</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2866103</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2183550</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>5319533</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>639768; 736864</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>1173373; 1295687</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>881498; 988985</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2375121; 2687668</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>889243; 996320</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1576366; 1704181</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1186791; 1309476</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2768623; 2980853</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1552715; 1698620</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2777249; 2954415</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2104957; 2261453</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>5178964; 5530774</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>